--- a/kt시험.xlsx
+++ b/kt시험.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTDS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTDS\Desktop\kt시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="10584"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="10584" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제조업 문제에 대한 예상 요구사항 및 답 예시" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="216">
   <si>
     <t>요건 항목</t>
   </si>
@@ -590,6 +590,832 @@
   <si>
     <t>인천 구로, 유럽, 베트남  사업확장하려고 할 경우 고려 사항등</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure 기반 구현 방안 설명</t>
+  </si>
+  <si>
+    <t>- **Azure Kubernetes Service (AKS)**로 마이크로서비스 아키텍처(MSA) 구현</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Helm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 사용한 컨테이너 배포 및 관리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Service Mesh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (예: Azure Arc 또는 Istio 통합)로 서비스 간 통신 관리</t>
+    </r>
+  </si>
+  <si>
+    <t>- AKS 클러스터의 고가용성 구성 필요</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Stack HCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용한 하이퍼컨버지드 인프라(HCI) 구축</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Arc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 통한 온프레미스 및 Azure 자원의 통합 관리</t>
+    </r>
+  </si>
+  <si>
+    <t>- Azure Stack HCI 솔루션의 적절한 선택과 최적화</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure App Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용하여 프론트엔드 배포</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML5 표준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 적용 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React/Angular/Vue.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 프레임워크 사용</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure API Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 통해 백엔드 서비스와 분리된 API 기반 통신 구성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Redis Cache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 세션 관리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Blob Storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용하여 파일 공유</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Event Hubs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Service Bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용하여 Kafka 클러스터 구축</t>
+    </r>
+  </si>
+  <si>
+    <t>- Event Hubs/Service Bus 설정 최적화</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Batch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용한 대규모 배치 작업 처리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Logic Apps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 비동기 처리 구성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Load Balancer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Traffic Manager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용하여 고가용성 네트워크 구성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure CDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 글로벌 콘텐츠 배포</t>
+    </r>
+  </si>
+  <si>
+    <t>- Azure CDN 설정 최적화</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure DevOps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 CI/CD 파이프라인 구축</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Test Plans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 통한 테스트 자동화 도구 도입</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">와 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Log Analytics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용하여 실시간 로그 수집 및 분석</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Sentinel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 통한 통합 보안 관리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Autoscale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 사용하여 트래픽 증가 대비 인프라 확장 계획 수립</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Traffic Manager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 글로벌 트래픽 관리</t>
+    </r>
+  </si>
+  <si>
+    <t>- **Azure Web Application Firewall (WAF)**를 사용한 웹 공격 방지</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Front Door</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 통해 IP/Port/URL 기반 접근 제어 시스템 구축</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Security Center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 기존 서버 및 DB 접근 제어 솔루션 유지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Key Vault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 사용한 데이터 암호화 솔루션 적용</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -954,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="70.69921875" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1000,208 +1826,208 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="27" spans="2:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
@@ -1253,22 +2079,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E58"/>
+  <dimension ref="B2:J58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="39.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.19921875" customWidth="1"/>
+    <col min="4" max="4" width="37.8984375" customWidth="1"/>
+    <col min="5" max="5" width="47.8984375" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" customWidth="1"/>
+    <col min="7" max="7" width="28.796875" customWidth="1"/>
+    <col min="8" max="8" width="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.8984375" customWidth="1"/>
+    <col min="10" max="10" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
@@ -1281,457 +2112,811 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="G24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="2" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
+      <c r="G33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>170</v>
       </c>
@@ -1787,12 +2972,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
+  <mergeCells count="24">
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
@@ -1800,6 +2992,11 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
